--- a/dataset-1/2-with_data_augmentation/results/border_smote.xlsx
+++ b/dataset-1/2-with_data_augmentation/results/border_smote.xlsx
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D4">
-        <v>0.8235294117647058</v>
+        <v>0.7058823529411764</v>
       </c>
     </row>
     <row r="5" spans="1:4">
